--- a/LoraWAN-Stick.xlsx
+++ b/LoraWAN-Stick.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Google Drive\Projects\LoraWAN-Stick\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brandon\Google Drive\Projects\LoraWAN-Stick\LoraWAN-Stick\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="LoraWAN-Stick" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -288,13 +288,13 @@
     <t>PCB</t>
   </si>
   <si>
-    <t>https://www.aliexpress.com/store/product/MTK3339-ultra-small-GPS-Module-with-Dual-Antenna-FGPMMOPA6C-PA6C/605000_531702544.html</t>
-  </si>
-  <si>
     <t>http://www.digikey.com/products/en?mpart=RN2903-I%2FRM095&amp;v=150</t>
   </si>
   <si>
     <t>http://www.digikey.com/product-detail/en/atmel/ATMEGA32U4RC-AU/ATMEGA32U4RC-AU-ND/2507982</t>
+  </si>
+  <si>
+    <t>https://www.aliexpress.com/item/FGPMMOPA6H-utilizes-the-MediaTek-new-generation-GPS-Chipset-MT3339/623742154.html?spm=2114.13010608.0.0.IbPs7Q</t>
   </si>
 </sst>
 </file>
@@ -1136,13 +1136,13 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R33" sqref="R33"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="45.5" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1176,7 +1176,7 @@
         <v>14.7</v>
       </c>
       <c r="F2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1193,7 +1193,7 @@
         <v>6.32</v>
       </c>
       <c r="F3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1209,8 +1209,8 @@
       <c r="D4">
         <v>11.8</v>
       </c>
-      <c r="F4" t="s">
-        <v>89</v>
+      <c r="F4" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1698,8 +1698,9 @@
     <hyperlink ref="F19" r:id="rId2"/>
     <hyperlink ref="F12" r:id="rId3"/>
     <hyperlink ref="F10" r:id="rId4"/>
+    <hyperlink ref="F4" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>